--- a/src/main/resources/excel/Verbs.xlsx
+++ b/src/main/resources/excel/Verbs.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1 Verb" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2 Verb" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="4 Verb" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="5 Verb" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="6 Verb" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="7 Verb" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="8 Verb" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="9 Verb" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="1 Verb" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2 Verb" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="4 Verb" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="5 Verb" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="6 Verb" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="7 Verb" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="8 Verb" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="9 Verb" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="930">
   <si>
     <t xml:space="preserve">add</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">agregado</t>
   </si>
   <si>
-    <t xml:space="preserve">ædɪd</t>
+    <t xml:space="preserve">ˈædɪd</t>
   </si>
   <si>
     <t xml:space="preserve">adding</t>
   </si>
   <si>
-    <t xml:space="preserve">añadiendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ædɪŋ</t>
+    <t xml:space="preserve">agregando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈædɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">adds</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">aceptar</t>
   </si>
   <si>
-    <t xml:space="preserve">əɡriː</t>
+    <t xml:space="preserve">əˈɡri</t>
   </si>
   <si>
     <t xml:space="preserve">agreed</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">acordado</t>
   </si>
   <si>
-    <t xml:space="preserve">əɡriːd</t>
+    <t xml:space="preserve">əˈɡrid</t>
   </si>
   <si>
     <t xml:space="preserve">agreeing</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">estar de acuerdo</t>
   </si>
   <si>
-    <t xml:space="preserve">əɡriːɪŋ</t>
+    <t xml:space="preserve">əˈɡriɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">agrees</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">está de acuerdo</t>
   </si>
   <si>
-    <t xml:space="preserve">əɡriːz</t>
+    <t xml:space="preserve">əˈɡriz</t>
   </si>
   <si>
     <t xml:space="preserve">ask</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">preguntar</t>
   </si>
   <si>
-    <t xml:space="preserve">ɑːsk</t>
+    <t xml:space="preserve">æsk</t>
   </si>
   <si>
     <t xml:space="preserve">asked</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">preguntó</t>
   </si>
   <si>
-    <t xml:space="preserve">ɑːskt</t>
+    <t xml:space="preserve">æskt</t>
   </si>
   <si>
     <t xml:space="preserve">asking</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">preguntando</t>
   </si>
   <si>
-    <t xml:space="preserve">ɑːskɪŋ</t>
+    <t xml:space="preserve">ˈæskɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">asks</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">pregunta</t>
   </si>
   <si>
-    <t xml:space="preserve">ɑːsks</t>
+    <t xml:space="preserve">æsks</t>
   </si>
   <si>
     <t xml:space="preserve">build</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">edificio</t>
   </si>
   <si>
-    <t xml:space="preserve">bɪldɪŋ</t>
+    <t xml:space="preserve">ˈbɪldɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">builds</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">compró</t>
   </si>
   <si>
-    <t xml:space="preserve">bɔːt</t>
+    <t xml:space="preserve">bɑt</t>
   </si>
   <si>
     <t xml:space="preserve">buying</t>
   </si>
   <si>
-    <t xml:space="preserve">baɪɪŋ</t>
+    <t xml:space="preserve">ˈbaɪɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">buys</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">llamar</t>
   </si>
   <si>
-    <t xml:space="preserve">kɔːl</t>
+    <t xml:space="preserve">kɔl</t>
   </si>
   <si>
     <t xml:space="preserve">called</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">llamado</t>
   </si>
   <si>
-    <t xml:space="preserve">kɔːld</t>
+    <t xml:space="preserve">kɔld</t>
   </si>
   <si>
     <t xml:space="preserve">calling</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">vocación</t>
   </si>
   <si>
-    <t xml:space="preserve">kɔːlɪŋ</t>
+    <t xml:space="preserve">ˈkɔlɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">calls</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">llamadas</t>
   </si>
   <si>
-    <t xml:space="preserve">kɔːlz</t>
+    <t xml:space="preserve">kɔlz</t>
   </si>
   <si>
     <t xml:space="preserve">change</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">almacenamiento en caché</t>
   </si>
   <si>
-    <t xml:space="preserve">kæʃɪŋ</t>
+    <t xml:space="preserve">ˈkæʃɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">changes</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">cambios</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧeɪnʤɪz</t>
+    <t xml:space="preserve">ˈʧeɪnʤəz</t>
   </si>
   <si>
     <t xml:space="preserve">check</t>
@@ -293,10 +293,13 @@
     <t xml:space="preserve">ʧɛk</t>
   </si>
   <si>
-    <t xml:space="preserve">cheked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisado</t>
+    <t xml:space="preserve">checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprobado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʧɛkt</t>
   </si>
   <si>
     <t xml:space="preserve">checking</t>
@@ -305,22 +308,25 @@
     <t xml:space="preserve">comprobación</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧɛkɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cheks</t>
+    <t xml:space="preserve">ˈʧɛkɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks</t>
   </si>
   <si>
     <t xml:space="preserve">cheques</t>
   </si>
   <si>
+    <t xml:space="preserve">ʧɛks</t>
+  </si>
+  <si>
     <t xml:space="preserve">choose</t>
   </si>
   <si>
     <t xml:space="preserve">elegir</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧuːz</t>
+    <t xml:space="preserve">ʧuz</t>
   </si>
   <si>
     <t xml:space="preserve">chose</t>
@@ -329,7 +335,7 @@
     <t xml:space="preserve">eligió</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧəʊz</t>
+    <t xml:space="preserve">ʧoʊz</t>
   </si>
   <si>
     <t xml:space="preserve">chosen</t>
@@ -338,7 +344,7 @@
     <t xml:space="preserve">elegido</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧəʊzᵊn</t>
+    <t xml:space="preserve">ˈʧoʊzən</t>
   </si>
   <si>
     <t xml:space="preserve">choosing</t>
@@ -347,7 +353,7 @@
     <t xml:space="preserve">eligiendo</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧuːzɪŋ</t>
+    <t xml:space="preserve">ˈʧuzɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">chooses</t>
@@ -356,7 +362,7 @@
     <t xml:space="preserve">elige</t>
   </si>
   <si>
-    <t xml:space="preserve">ʧuːzɪz</t>
+    <t xml:space="preserve">ˈʧuzəz</t>
   </si>
   <si>
     <t xml:space="preserve">clean</t>
@@ -365,7 +371,7 @@
     <t xml:space="preserve">limpio</t>
   </si>
   <si>
-    <t xml:space="preserve">kliːn</t>
+    <t xml:space="preserve">klin</t>
   </si>
   <si>
     <t xml:space="preserve">cleaned</t>
@@ -374,7 +380,7 @@
     <t xml:space="preserve">limpiado</t>
   </si>
   <si>
-    <t xml:space="preserve">kliːnd</t>
+    <t xml:space="preserve">klind</t>
   </si>
   <si>
     <t xml:space="preserve">cleaning</t>
@@ -383,7 +389,7 @@
     <t xml:space="preserve">limpieza</t>
   </si>
   <si>
-    <t xml:space="preserve">kliːnɪŋ</t>
+    <t xml:space="preserve">ˈklinɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">cleans</t>
@@ -392,7 +398,7 @@
     <t xml:space="preserve">limpia</t>
   </si>
   <si>
-    <t xml:space="preserve">kliːnz</t>
+    <t xml:space="preserve">klinz</t>
   </si>
   <si>
     <t xml:space="preserve">close</t>
@@ -2890,7 +2896,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2906,15 +2912,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3323,7 +3435,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,145 +3446,145 @@
         <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3481,7 +3593,581 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3495,558 +4181,558 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>317</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>221</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>241</v>
+        <v>376</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4054,8 +4740,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4069,558 +4755,558 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>256</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>390</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>393</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>393</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>394</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>271</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>277</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>409</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>280</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>283</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>292</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>422</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>302</v>
+        <v>431</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>303</v>
+        <v>432</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>304</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>308</v>
+        <v>437</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>309</v>
+        <v>438</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>310</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>316</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>317</v>
+        <v>446</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>323</v>
+        <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>325</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>326</v>
+        <v>458</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>331</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>338</v>
+        <v>470</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>341</v>
+        <v>473</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>333</v>
+        <v>474</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>342</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>345</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>346</v>
+        <v>479</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>349</v>
+        <v>482</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>351</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>354</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>357</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>358</v>
+        <v>488</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>359</v>
+        <v>489</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>360</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>362</v>
+        <v>480</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>363</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>364</v>
+        <v>491</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>368</v>
+        <v>480</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>370</v>
+        <v>494</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>371</v>
+        <v>495</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4628,8 +5314,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4643,558 +5329,558 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>501</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>390</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>407</v>
+        <v>529</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>410</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>411</v>
+        <v>534</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>426</v>
+        <v>546</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>428</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>426</v>
+        <v>546</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>428</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>431</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>435</v>
+        <v>554</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>436</v>
+        <v>555</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>441</v>
+        <v>560</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>444</v>
+        <v>563</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>445</v>
+        <v>564</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>446</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>452</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>453</v>
+        <v>569</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>455</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>458</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>459</v>
+        <v>575</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>460</v>
+        <v>576</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>461</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>463</v>
+        <v>579</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>464</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>467</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>469</v>
+        <v>582</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>472</v>
+        <v>585</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>473</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>474</v>
+        <v>587</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>475</v>
+        <v>588</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>476</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>478</v>
+        <v>591</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>479</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>480</v>
+        <v>593</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>481</v>
+        <v>594</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>482</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>480</v>
+        <v>593</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>481</v>
+        <v>594</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>482</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>484</v>
+        <v>597</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>485</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>486</v>
+        <v>599</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>487</v>
+        <v>600</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>488</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>489</v>
+        <v>602</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>478</v>
+        <v>603</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>490</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>489</v>
+        <v>605</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>478</v>
+        <v>606</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>490</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>491</v>
+        <v>605</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>478</v>
+        <v>606</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>490</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>492</v>
+        <v>608</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>493</v>
+        <v>609</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>494</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>495</v>
+        <v>611</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>497</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5202,8 +5888,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5217,558 +5903,558 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>500</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>502</v>
+        <v>615</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>503</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>615</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>503</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>504</v>
+        <v>617</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>506</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>507</v>
+        <v>620</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>509</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>624</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>630</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>519</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>520</v>
+        <v>632</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>521</v>
+        <v>633</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>523</v>
+        <v>635</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>525</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>523</v>
+        <v>635</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>525</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>526</v>
+        <v>638</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>527</v>
+        <v>639</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>529</v>
+        <v>641</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>531</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>645</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>533</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>235</v>
+        <v>648</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>534</v>
+        <v>644</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>645</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>535</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>645</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>540</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>541</v>
+        <v>655</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>543</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>545</v>
+        <v>403</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>546</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>544</v>
+        <v>660</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>545</v>
+        <v>661</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>546</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>547</v>
+        <v>662</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>548</v>
+        <v>661</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>547</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>550</v>
+        <v>665</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>551</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>552</v>
+        <v>667</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>668</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>554</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>555</v>
+        <v>670</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>556</v>
+        <v>671</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>555</v>
+        <v>673</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>556</v>
+        <v>674</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>557</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>558</v>
+        <v>676</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>559</v>
+        <v>677</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>560</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>561</v>
+        <v>679</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>562</v>
+        <v>680</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>563</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>564</v>
+        <v>682</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>565</v>
+        <v>683</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>566</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>567</v>
+        <v>685</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>568</v>
+        <v>686</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>569</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>567</v>
+        <v>685</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>568</v>
+        <v>686</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>569</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>570</v>
+        <v>688</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>571</v>
+        <v>683</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>572</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>573</v>
+        <v>690</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>574</v>
+        <v>691</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>575</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>577</v>
+        <v>694</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>578</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>579</v>
+        <v>696</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>580</v>
+        <v>697</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>581</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>579</v>
+        <v>696</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>580</v>
+        <v>697</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>581</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>582</v>
+        <v>699</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>584</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>585</v>
+        <v>702</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>586</v>
+        <v>703</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>587</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>588</v>
+        <v>705</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>589</v>
+        <v>706</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>590</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>591</v>
+        <v>708</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>592</v>
+        <v>709</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>593</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>591</v>
+        <v>711</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>592</v>
+        <v>712</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>593</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>594</v>
+        <v>714</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>595</v>
+        <v>715</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>596</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>597</v>
+        <v>717</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>598</v>
+        <v>718</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>599</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>601</v>
+        <v>721</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>603</v>
+        <v>720</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>604</v>
+        <v>721</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>605</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>604</v>
+        <v>724</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>605</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>606</v>
+        <v>726</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>607</v>
+        <v>727</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>608</v>
+        <v>728</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>609</v>
+        <v>729</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>610</v>
+        <v>730</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>611</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5776,8 +6462,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5791,558 +6477,558 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>732</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>614</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>612</v>
+        <v>732</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>613</v>
+        <v>733</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>614</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>612</v>
+        <v>735</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>613</v>
+        <v>736</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>614</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>615</v>
+        <v>738</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>616</v>
+        <v>736</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>617</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>618</v>
+        <v>740</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>619</v>
+        <v>741</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>620</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>621</v>
+        <v>743</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>622</v>
+        <v>744</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>623</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>621</v>
+        <v>743</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>622</v>
+        <v>744</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>623</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>621</v>
+        <v>746</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>622</v>
+        <v>747</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>623</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>624</v>
+        <v>749</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>626</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>627</v>
+        <v>752</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>628</v>
+        <v>753</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>629</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>630</v>
+        <v>755</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>631</v>
+        <v>756</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>632</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>633</v>
+        <v>755</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>634</v>
+        <v>756</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>635</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>633</v>
+        <v>758</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>634</v>
+        <v>759</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>635</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>636</v>
+        <v>761</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>637</v>
+        <v>762</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>638</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>639</v>
+        <v>764</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>640</v>
+        <v>765</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>641</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>642</v>
+        <v>767</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>643</v>
+        <v>768</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>644</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>645</v>
+        <v>767</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>646</v>
+        <v>768</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>647</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>642</v>
+        <v>770</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>643</v>
+        <v>771</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>644</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>648</v>
+        <v>773</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>643</v>
+        <v>774</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>649</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>652</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>653</v>
+        <v>779</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>654</v>
+        <v>780</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>655</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>656</v>
+        <v>779</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>401</v>
+        <v>780</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>657</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>658</v>
+        <v>782</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>659</v>
+        <v>783</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>657</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>660</v>
+        <v>785</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>659</v>
+        <v>786</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>661</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>662</v>
+        <v>788</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>664</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>665</v>
+        <v>790</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>666</v>
+        <v>791</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>668</v>
+        <v>790</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>669</v>
+        <v>791</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>670</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>671</v>
+        <v>793</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>672</v>
+        <v>794</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>673</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>674</v>
+        <v>796</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>676</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>677</v>
+        <v>798</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>678</v>
+        <v>799</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>679</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>680</v>
+        <v>801</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>681</v>
+        <v>802</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>682</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>683</v>
+        <v>801</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>684</v>
+        <v>802</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>685</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>683</v>
+        <v>804</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>684</v>
+        <v>802</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>685</v>
+        <v>805</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>686</v>
+        <v>806</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>681</v>
+        <v>807</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>687</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>688</v>
+        <v>809</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>689</v>
+        <v>810</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>690</v>
+        <v>811</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>691</v>
+        <v>812</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>692</v>
+        <v>813</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>693</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>694</v>
+        <v>812</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>695</v>
+        <v>813</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>696</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>694</v>
+        <v>815</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>695</v>
+        <v>816</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>696</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>697</v>
+        <v>818</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>698</v>
+        <v>819</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>699</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>700</v>
+        <v>821</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>701</v>
+        <v>822</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>703</v>
+        <v>824</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>704</v>
+        <v>825</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>705</v>
+        <v>826</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>706</v>
+        <v>824</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>707</v>
+        <v>825</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>708</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>709</v>
+        <v>827</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>711</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>712</v>
+        <v>830</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>713</v>
+        <v>831</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>714</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>715</v>
+        <v>833</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>716</v>
+        <v>834</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>717</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>718</v>
+        <v>836</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>719</v>
+        <v>837</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>720</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>718</v>
+        <v>836</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>719</v>
+        <v>837</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>720</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>721</v>
+        <v>839</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>722</v>
+        <v>840</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>723</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>724</v>
+        <v>842</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>725</v>
+        <v>843</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>726</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>729</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6350,12 +7036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6365,967 +7051,393 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>848</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>731</v>
+        <v>849</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>732</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>730</v>
+        <v>848</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>849</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>732</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>733</v>
+        <v>851</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>734</v>
+        <v>852</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>735</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>736</v>
+        <v>854</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>734</v>
+        <v>855</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>737</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>738</v>
+        <v>857</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>739</v>
+        <v>858</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>740</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>741</v>
+        <v>860</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>742</v>
+        <v>861</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>741</v>
+        <v>860</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>742</v>
+        <v>861</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>744</v>
+        <v>863</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>745</v>
+        <v>864</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>746</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>747</v>
+        <v>866</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>748</v>
+        <v>867</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>749</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>750</v>
+        <v>869</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>751</v>
+        <v>870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>752</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>753</v>
+        <v>872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>754</v>
+        <v>873</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>755</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>753</v>
+        <v>872</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>754</v>
+        <v>873</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>755</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>756</v>
+        <v>872</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>757</v>
+        <v>873</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>758</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>759</v>
+        <v>875</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>760</v>
+        <v>876</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>761</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>762</v>
+        <v>878</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>763</v>
+        <v>879</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>764</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>765</v>
+        <v>881</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>766</v>
+        <v>523</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>767</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>765</v>
+        <v>883</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>766</v>
+        <v>884</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>767</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>768</v>
+        <v>883</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>769</v>
+        <v>884</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>770</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>771</v>
+        <v>886</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>772</v>
+        <v>529</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>773</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>774</v>
+        <v>888</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>775</v>
+        <v>889</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>776</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>777</v>
+        <v>891</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>778</v>
+        <v>892</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>779</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>777</v>
+        <v>894</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>778</v>
+        <v>895</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>779</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>780</v>
+        <v>894</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>781</v>
+        <v>895</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>782</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>783</v>
+        <v>897</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>784</v>
+        <v>898</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>785</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>786</v>
+        <v>900</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>654</v>
+        <v>901</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>787</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>788</v>
+        <v>903</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>789</v>
+        <v>904</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>790</v>
+        <v>905</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>788</v>
+        <v>906</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>790</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>791</v>
+        <v>906</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>792</v>
+        <v>907</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>793</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>794</v>
+        <v>909</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>663</v>
+        <v>910</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>795</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>796</v>
+        <v>912</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>797</v>
+        <v>913</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>798</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>799</v>
+        <v>915</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>800</v>
+        <v>916</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>801</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>799</v>
+        <v>918</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>800</v>
+        <v>919</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>801</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>802</v>
+        <v>921</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>800</v>
+        <v>922</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>804</v>
+        <v>924</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>805</v>
+        <v>925</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>806</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>807</v>
+        <v>927</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>808</v>
+        <v>928</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>845</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/resources/excel/Verbs.xlsx
+++ b/src/main/resources/excel/Verbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 Verb" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="928">
   <si>
     <t xml:space="preserve">add</t>
   </si>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">lɜːnt</t>
   </si>
   <si>
-    <t xml:space="preserve"> learnt</t>
+    <t xml:space="preserve">learnt</t>
   </si>
   <si>
     <t xml:space="preserve">  aprendió</t>
@@ -1508,9 +1508,6 @@
     <t xml:space="preserve">lɛt</t>
   </si>
   <si>
-    <t xml:space="preserve">let </t>
-  </si>
-  <si>
     <t xml:space="preserve">letting</t>
   </si>
   <si>
@@ -2003,13 +2000,10 @@
     <t xml:space="preserve">seɪ</t>
   </si>
   <si>
-    <t xml:space="preserve">aid</t>
+    <t xml:space="preserve">said</t>
   </si>
   <si>
     <t xml:space="preserve">sɛd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">said</t>
   </si>
   <si>
     <t xml:space="preserve">dicho</t>
@@ -3599,7 +3593,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4747,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5272,7 +5266,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>480</v>
@@ -5283,24 +5277,24 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5329,552 +5323,552 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>391</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5895,560 +5889,560 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -6477,552 +6471,552 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -7051,387 +7045,387 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Verbs.xlsx
+++ b/src/main/resources/excel/Verbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 Verb" sheetId="1" state="visible" r:id="rId3"/>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">ʧeɪnʤd</t>
   </si>
   <si>
+    <t xml:space="preserve">cambiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">chaged</t>
   </si>
   <si>
-    <t xml:space="preserve">cambiado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caching</t>
+    <t xml:space="preserve">changing</t>
   </si>
   <si>
     <t xml:space="preserve">almacenamiento en caché</t>
@@ -3019,8 +3019,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,7 +5889,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
